--- a/data/trans_dic/P1435_2011_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1435_2011_2023-Edad-trans_dic.xlsx
@@ -641,16 +641,16 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007114125118216152</v>
+        <v>0.006938575807887854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02528666201895348</v>
+        <v>0.02308867173921267</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004465717038751549</v>
+        <v>0.00451187339846318</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01569878597721611</v>
+        <v>0.01512676408758303</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01030440094738993</v>
+        <v>0.01199732070848328</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04504343811086833</v>
+        <v>0.04196280170357686</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03410218387042443</v>
+        <v>0.03215879886511613</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09840450852259298</v>
+        <v>0.09114650508693606</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01790908677335091</v>
+        <v>0.0174198130096215</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05546911938480349</v>
+        <v>0.05309506972001873</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.01295232291334848</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0281560667292543</v>
+        <v>0.02815606672925429</v>
       </c>
     </row>
     <row r="8">
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002541947819260398</v>
+        <v>0.002546835722334004</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01412457026120785</v>
+        <v>0.01470514228465491</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03084489304527591</v>
+        <v>0.03159023373565833</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.007698949693747004</v>
+        <v>0.00771379128250962</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01883898816505773</v>
+        <v>0.0191053654653277</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.008179207135381776</v>
+        <v>0.00966614883314976</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02623059387968821</v>
+        <v>0.02671618443306759</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04161913179664049</v>
+        <v>0.0403593636257524</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06802321638952571</v>
+        <v>0.06817484471793918</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02119380193735441</v>
+        <v>0.02105865094903368</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04175261506359192</v>
+        <v>0.03974986978872514</v>
       </c>
     </row>
     <row r="10">
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.01115913447628486</v>
+        <v>0.01115913447628487</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.02849710055749009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06253581956156079</v>
+        <v>0.0625358195615608</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0145451102172319</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.03684418730492012</v>
+        <v>0.03684418730492011</v>
       </c>
     </row>
     <row r="11">
@@ -800,19 +800,19 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.004125527877228949</v>
+        <v>0.003854454748871904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01801961577867383</v>
+        <v>0.01764471576877463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04792936461182987</v>
+        <v>0.04720488051326844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008574211902270546</v>
+        <v>0.009131992786503946</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02865586151161564</v>
+        <v>0.02884141625508146</v>
       </c>
     </row>
     <row r="12">
@@ -824,19 +824,19 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02315932574689326</v>
+        <v>0.02333168211375957</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04371797538964929</v>
+        <v>0.04225493140649733</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08063313003009276</v>
+        <v>0.08172167399478777</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02157297598820531</v>
+        <v>0.02207788300018857</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04738893855665217</v>
+        <v>0.04756290950733274</v>
       </c>
     </row>
     <row r="13">
@@ -854,7 +854,7 @@
         <v>0.006478135369061635</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02301888644231237</v>
+        <v>0.02301888644231236</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.05955125729969559</v>
@@ -866,7 +866,7 @@
         <v>0.03304881355085725</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.05886385334533916</v>
+        <v>0.05886385334533918</v>
       </c>
     </row>
     <row r="14">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001601307694951211</v>
+        <v>0.001607731189739819</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01311493100766201</v>
+        <v>0.01298666302059086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04264613574783541</v>
+        <v>0.04153907628801649</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07802683430777808</v>
+        <v>0.07770628726012505</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02369130469247332</v>
+        <v>0.02361148570225162</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04928325143393709</v>
+        <v>0.04873682942086915</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01628762833475073</v>
+        <v>0.01614435528510459</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03748081197830106</v>
+        <v>0.036573034781873</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08422137030531222</v>
+        <v>0.08059713123253319</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1134475952950663</v>
+        <v>0.1099131745291159</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04430487051385733</v>
+        <v>0.0450425020637403</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07000827114716257</v>
+        <v>0.07079299615087573</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002413925850145522</v>
+        <v>0.002395789002848289</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01064109606751172</v>
+        <v>0.0105983701982265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05116978114303183</v>
+        <v>0.05127208578660537</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.131602259449728</v>
+        <v>0.1314438494471662</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02874066456652743</v>
+        <v>0.02930222883236204</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07338062338751704</v>
+        <v>0.07432827724523472</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01970177906732147</v>
+        <v>0.01955577578375161</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03076778202097073</v>
+        <v>0.03134485235391293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1057779586752809</v>
+        <v>0.1036943830057935</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1781366311439695</v>
+        <v>0.176073339077083</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05779111419175539</v>
+        <v>0.05825320397955158</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1002206973513683</v>
+        <v>0.09910497102754671</v>
       </c>
     </row>
     <row r="19">
@@ -1030,7 +1030,7 @@
         <v>0.01638385508996177</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.0755180698826048</v>
+        <v>0.07551806988260482</v>
       </c>
     </row>
     <row r="20">
@@ -1042,19 +1042,19 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.01539331734865501</v>
+        <v>0.01530950156337205</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01660594022630308</v>
+        <v>0.01671481019336653</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09941131332539439</v>
+        <v>0.09989997315685095</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.008779472591465694</v>
+        <v>0.008836002076121372</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06276224708493068</v>
+        <v>0.06421061442473314</v>
       </c>
     </row>
     <row r="21">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.04188624525883005</v>
+        <v>0.04299925077496009</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05537636628868361</v>
+        <v>0.0506147497667578</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1451637633610641</v>
+        <v>0.1443157486573027</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02793920480556705</v>
+        <v>0.03015264540846091</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08906430748791401</v>
+        <v>0.09051815279665712</v>
       </c>
     </row>
     <row r="22">
@@ -1102,7 +1102,7 @@
         <v>0.008760208164057384</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08589005777124648</v>
+        <v>0.08589005777124645</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.006995991224917997</v>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007092353905102672</v>
+        <v>0.007026565054823132</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.00255705238189706</v>
+        <v>0.002532095683630099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06618105316644504</v>
+        <v>0.06732488718596558</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.001684561014854209</v>
+        <v>0.002054767875977584</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04564820185323232</v>
+        <v>0.04644447028409472</v>
       </c>
     </row>
     <row r="24">
@@ -1145,22 +1145,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02145674835823023</v>
+        <v>0.02440055836228781</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03144251451026973</v>
+        <v>0.03111631707528527</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02514288873654515</v>
+        <v>0.02823486179493058</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1081270893094153</v>
+        <v>0.1087382268702641</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01777162738415979</v>
+        <v>0.01756907929939567</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0721309826277368</v>
+        <v>0.07281531291112157</v>
       </c>
     </row>
     <row r="25">
@@ -1190,7 +1190,7 @@
         <v>0.01972301731157295</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.05418584235746003</v>
+        <v>0.05418584235746004</v>
       </c>
     </row>
     <row r="26">
@@ -1201,22 +1201,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001491578273639765</v>
+        <v>0.001716578031794266</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01307910664804666</v>
+        <v>0.01292171140740438</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03031351410243513</v>
+        <v>0.02933460762380806</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.08238241973365806</v>
+        <v>0.08201249575828187</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.01634237886347341</v>
+        <v>0.01672798016321282</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04950379783797668</v>
+        <v>0.04967170854434656</v>
       </c>
     </row>
     <row r="27">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.005531209871870509</v>
+        <v>0.005514111529546365</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02225775972019574</v>
+        <v>0.02221713547901617</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0431308977332567</v>
+        <v>0.0424681292849714</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0986508367853601</v>
+        <v>0.0978358412500507</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02318444070138259</v>
+        <v>0.02361650007887983</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05938354879180969</v>
+        <v>0.05916804130358666</v>
       </c>
     </row>
     <row r="28">
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3061</v>
+        <v>2985</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9167</v>
+        <v>8370</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3949</v>
+        <v>3990</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12093</v>
+        <v>11652</v>
       </c>
     </row>
     <row r="7">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4680</v>
+        <v>5449</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18368</v>
+        <v>17112</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14672</v>
+        <v>13836</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>35673</v>
+        <v>33042</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15838</v>
+        <v>15406</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42728</v>
+        <v>40899</v>
       </c>
     </row>
     <row r="8">
@@ -1543,19 +1543,19 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8620</v>
+        <v>8974</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15456</v>
+        <v>15829</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9988</v>
+        <v>10007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18424</v>
+        <v>18685</v>
       </c>
     </row>
     <row r="11">
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5620</v>
+        <v>6641</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12509</v>
+        <v>12741</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25398</v>
+        <v>24630</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>34085</v>
+        <v>34161</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27496</v>
+        <v>27320</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>40833</v>
+        <v>38874</v>
       </c>
     </row>
     <row r="12">
@@ -1649,19 +1649,19 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>2561</v>
+        <v>2393</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12809</v>
+        <v>12543</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>29749</v>
+        <v>29299</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11941</v>
+        <v>12718</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>35577</v>
+        <v>35807</v>
       </c>
     </row>
     <row r="15">
@@ -1673,19 +1673,19 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>14378</v>
+        <v>14485</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>31077</v>
+        <v>30037</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>50047</v>
+        <v>50723</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>30045</v>
+        <v>30748</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>58834</v>
+        <v>59050</v>
       </c>
     </row>
     <row r="16">
@@ -1752,22 +1752,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9174</v>
+        <v>9084</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>26279</v>
+        <v>25596</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>57466</v>
+        <v>57230</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>29160</v>
+        <v>29061</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>70771</v>
+        <v>69987</v>
       </c>
     </row>
     <row r="19">
@@ -1778,22 +1778,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10011</v>
+        <v>9923</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26219</v>
+        <v>25584</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>51897</v>
+        <v>49664</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>83554</v>
+        <v>80951</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>54531</v>
+        <v>55439</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>100533</v>
+        <v>101660</v>
       </c>
     </row>
     <row r="20">
@@ -1860,22 +1860,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6474</v>
+        <v>6448</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22914</v>
+        <v>22960</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>79571</v>
+        <v>79475</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>25212</v>
+        <v>25705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>89010</v>
+        <v>90160</v>
       </c>
     </row>
     <row r="23">
@@ -1886,22 +1886,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8461</v>
+        <v>8398</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18718</v>
+        <v>19069</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>47367</v>
+        <v>46434</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>107707</v>
+        <v>106460</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>50696</v>
+        <v>51101</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>121567</v>
+        <v>120213</v>
       </c>
     </row>
     <row r="24">
@@ -1969,19 +1969,19 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>6253</v>
+        <v>6219</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5878</v>
+        <v>5917</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>43620</v>
+        <v>43835</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5828</v>
+        <v>5865</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>53034</v>
+        <v>54258</v>
       </c>
     </row>
     <row r="27">
@@ -1993,19 +1993,19 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>17015</v>
+        <v>17467</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19603</v>
+        <v>17917</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>63696</v>
+        <v>63324</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>18546</v>
+        <v>20015</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>75259</v>
+        <v>76488</v>
       </c>
     </row>
     <row r="28">
@@ -2075,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2200</v>
+        <v>2180</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>30748</v>
+        <v>31280</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1076</v>
+        <v>1313</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>35369</v>
+        <v>35986</v>
       </c>
     </row>
     <row r="31">
@@ -2098,22 +2098,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5361</v>
+        <v>6097</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9753</v>
+        <v>9652</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9780</v>
+        <v>10983</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>50237</v>
+        <v>50521</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11353</v>
+        <v>11224</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>55888</v>
+        <v>56418</v>
       </c>
     </row>
     <row r="32">
@@ -2180,22 +2180,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5111</v>
+        <v>5882</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>46167</v>
+        <v>45611</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>107865</v>
+        <v>104382</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>307187</v>
+        <v>305808</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>114153</v>
+        <v>116846</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>359328</v>
+        <v>360547</v>
       </c>
     </row>
     <row r="35">
@@ -2206,22 +2206,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>18954</v>
+        <v>18896</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>78566</v>
+        <v>78422</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>153473</v>
+        <v>151115</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>367849</v>
+        <v>364810</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>161945</v>
+        <v>164963</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>431042</v>
+        <v>429477</v>
       </c>
     </row>
     <row r="36">
